--- a/dtpu_configurations/only_integer32/80mhz/mxu_6x6/power.xlsx
+++ b/dtpu_configurations/only_integer32/80mhz/mxu_6x6/power.xlsx
@@ -47,7 +47,7 @@
     <t>Total Power</t>
   </si>
   <si>
-    <t>impl_1, impl_1_route_report_power_0</t>
+    <t>retiming, retiming_route_report_power_0</t>
   </si>
 </sst>
 </file>
@@ -122,12 +122,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.71875" customWidth="true"/>
+    <col min="1" max="1" width="45.46875" customWidth="true"/>
     <col min="2" max="2" width="9.0625" customWidth="true"/>
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="8.75" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.032332416623830795</v>
+        <v>0.04526928812265396</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.01356557011604309</v>
+        <v>0.016871728003025055</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.010574144311249256</v>
+        <v>0.012465286068618298</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.008464770391583443</v>
+        <v>0.00868250709027052</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>4.2423460399731994E-5</v>
+        <v>0.002364856656640768</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.002681552665308118</v>
+        <v>0.0037329078186303377</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>0.0014924227725714445</v>
@@ -199,10 +199,10 @@
         <v>1.2604483366012573</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12709586322307587</v>
+        <v>0.12778836488723755</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4567077159881592</v>
+        <v>1.4791258573532104</v>
       </c>
     </row>
   </sheetData>
